--- a/php/files/export_temps.xlsx
+++ b/php/files/export_temps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
     <t>end</t>
   </si>
   <si>
+    <t>nb_heures</t>
+  </si>
+  <si>
     <t>id_projet</t>
   </si>
   <si>
@@ -65,175 +68,97 @@
     <t>personne</t>
   </si>
   <si>
-    <t>2ce242c5-1066-4e49-ad13-e1f4e226b800</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>2022-12-21 09:00:00</t>
-  </si>
-  <si>
-    <t>2022-12-21 12:30:00</t>
+    <t>bb08da64-7c1f-2bfd-1790-c954b8a811de</t>
+  </si>
+  <si>
+    <t>gdhezhdzged</t>
+  </si>
+  <si>
+    <t>2023-01-04 08:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-04 12:00:00</t>
+  </si>
+  <si>
+    <t>PRAM 2022</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>Benoit Perceval</t>
+  </si>
+  <si>
+    <t>82324207-8476-a100-0564-9d4e18319302</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>2023-01-05 07:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-05 13:30:00</t>
+  </si>
+  <si>
+    <t>Etude divette 2021-2022</t>
+  </si>
+  <si>
+    <t>#3a5a6a</t>
+  </si>
+  <si>
+    <t>3cc256b6-abe6-48ac-8a9f-416da7e42d29</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>2023-01-06 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:00</t>
   </si>
   <si>
     <t>Cellule Animation zones humides 2021</t>
   </si>
   <si>
-    <t>Terrain</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
   </si>
   <si>
     <t>#f7942a</t>
   </si>
   <si>
-    <t>Benoit Perceval</t>
-  </si>
-  <si>
-    <t>9bce8d85-04e1-449d-b04e-ecffa4d5b93c</t>
-  </si>
-  <si>
-    <t>trgrthoooo</t>
-  </si>
-  <si>
-    <t>2022-12-22 07:00:00</t>
-  </si>
-  <si>
-    <t>2022-12-22 10:00:00</t>
-  </si>
-  <si>
-    <t>Gestion RNN Coteau de Mesnil-Soleil</t>
-  </si>
-  <si>
-    <t>Modulation</t>
-  </si>
-  <si>
-    <t>#3a5a6a</t>
-  </si>
-  <si>
-    <t>45c51e19-f7a9-463b-8af0-42fe55fbe853</t>
-  </si>
-  <si>
-    <t>trgrthoooo__</t>
-  </si>
-  <si>
-    <t>2022-12-22 11:30:00</t>
-  </si>
-  <si>
-    <t>2022-12-22 14:00:00</t>
-  </si>
-  <si>
-    <t>Bureau</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>144a009a-e225-41ea-b8a4-99f1a05754cc</t>
-  </si>
-  <si>
-    <t>trgrth</t>
-  </si>
-  <si>
-    <t>2022-12-23 06:30:00</t>
-  </si>
-  <si>
-    <t>2022-12-23 11:00:00</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>61e272d7-25e7-4d90-9310-9731964d7f7b</t>
-  </si>
-  <si>
-    <t>fsfs</t>
-  </si>
-  <si>
-    <t>2022-12-24 06:00:00</t>
-  </si>
-  <si>
-    <t>2022-12-24 07:00:00</t>
-  </si>
-  <si>
-    <t>79dd373c-2b95-4c2b-b1b6-3349e8bbf5e5</t>
-  </si>
-  <si>
-    <t>zedsefsef</t>
-  </si>
-  <si>
-    <t>2022-12-25 05:30:00</t>
-  </si>
-  <si>
-    <t>2022-12-25 06:30:00</t>
-  </si>
-  <si>
-    <t>Réunion</t>
-  </si>
-  <si>
-    <t>de24c3d7-78c7-48b1-930f-12dd2b9abe00</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>2022-12-25 08:30:00</t>
-  </si>
-  <si>
-    <t>2022-12-25 09:30:00</t>
-  </si>
-  <si>
-    <t>Télétravail</t>
-  </si>
-  <si>
-    <t>dae6ed3e-a5e6-03f0-77f7-e6c04daa1d2c</t>
-  </si>
-  <si>
-    <t>qqqqq</t>
-  </si>
-  <si>
-    <t>2023-01-02 05:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-08 09:00:00</t>
-  </si>
-  <si>
-    <t>PRAM 2022</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>#800080</t>
-  </si>
-  <si>
-    <t>efcef1cd-124d-47d5-bf79-d5faef54d7e9</t>
-  </si>
-  <si>
-    <t>blabla</t>
-  </si>
-  <si>
-    <t>2023-01-06 05:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:00</t>
-  </si>
-  <si>
-    <t>50e064e1-9f59-30be-a567-811713d27ac6</t>
-  </si>
-  <si>
-    <t>sfsef</t>
-  </si>
-  <si>
-    <t>2023-01-09 06:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-15 09:00:00</t>
+    <t>dd201eba-5e29-53b1-c7c8-fa1616172241</t>
+  </si>
+  <si>
+    <t>2023-01-07 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-07 13:30:00</t>
+  </si>
+  <si>
+    <t>5dde2665-1a23-4ff7-6d59-2d952a8bdd67</t>
+  </si>
+  <si>
+    <t>zzzzzzzugb</t>
+  </si>
+  <si>
+    <t>2023-01-08 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-08 13:30:00</t>
   </si>
 </sst>
 </file>
@@ -252,18 +177,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,11 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -578,19 +494,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -635,45 +551,48 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>254</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
-        <v>638</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G2">
+        <v>2188</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -681,54 +600,60 @@
       <c r="P2" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>2018</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G3">
+        <v>699</v>
+      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
+      <c r="K3"/>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
+      <c r="Q3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -742,76 +667,79 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>114</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
+        <v>254</v>
+      </c>
+      <c r="G4">
         <v>638</v>
       </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>699</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5">
-        <v>254</v>
-      </c>
-      <c r="F5">
-        <v>638</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
@@ -819,8 +747,11 @@
       <c r="P5" t="s">
         <v>25</v>
       </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -834,28 +765,30 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>638</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6">
+        <v>699</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
+      <c r="K6"/>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -863,235 +796,8 @@
       <c r="P6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>254</v>
-      </c>
-      <c r="F7">
-        <v>638</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>254</v>
-      </c>
-      <c r="F8">
-        <v>638</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <v>273</v>
-      </c>
-      <c r="F9">
-        <v>2188</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10">
-        <v>254</v>
-      </c>
-      <c r="F10">
-        <v>638</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>273</v>
-      </c>
-      <c r="F11">
-        <v>2188</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
+      <c r="Q6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/php/files/export_temps.xlsx
+++ b/php/files/export_temps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -68,19 +68,22 @@
     <t>personne</t>
   </si>
   <si>
-    <t>bb08da64-7c1f-2bfd-1790-c954b8a811de</t>
-  </si>
-  <si>
-    <t>gdhezhdzged</t>
-  </si>
-  <si>
-    <t>2023-01-04 08:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-04 12:00:00</t>
-  </si>
-  <si>
-    <t>PRAM 2022</t>
+    <t>b8e17a25-2d09-aa9a-abb1-3db4bbede78d</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>2023-01-02 06:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-02 09:00:00</t>
+  </si>
+  <si>
+    <t>ANIM_N2000 -  Animation Natura 2000</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
   </si>
   <si>
     <t>Bureau</t>
@@ -92,73 +95,10 @@
     <t>2023-01-06</t>
   </si>
   <si>
-    <t>#800080</t>
+    <t>#ff0000</t>
   </si>
   <si>
     <t>Benoit Perceval</t>
-  </si>
-  <si>
-    <t>82324207-8476-a100-0564-9d4e18319302</t>
-  </si>
-  <si>
-    <t>zzzzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>2023-01-05 07:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-05 13:30:00</t>
-  </si>
-  <si>
-    <t>Etude divette 2021-2022</t>
-  </si>
-  <si>
-    <t>#3a5a6a</t>
-  </si>
-  <si>
-    <t>3cc256b6-abe6-48ac-8a9f-416da7e42d29</t>
-  </si>
-  <si>
-    <t>blabla</t>
-  </si>
-  <si>
-    <t>2023-01-06 06:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:00</t>
-  </si>
-  <si>
-    <t>Cellule Animation zones humides 2021</t>
-  </si>
-  <si>
-    <t>Réunion</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>#f7942a</t>
-  </si>
-  <si>
-    <t>dd201eba-5e29-53b1-c7c8-fa1616172241</t>
-  </si>
-  <si>
-    <t>2023-01-07 06:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-07 13:30:00</t>
-  </si>
-  <si>
-    <t>5dde2665-1a23-4ff7-6d59-2d952a8bdd67</t>
-  </si>
-  <si>
-    <t>zzzzzzzugb</t>
-  </si>
-  <si>
-    <t>2023-01-08 06:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-08 13:30:00</t>
   </si>
 </sst>
 </file>
@@ -494,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,235 +509,41 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="G2">
-        <v>2188</v>
-      </c>
-      <c r="H2"/>
+        <v>2217</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>214</v>
-      </c>
-      <c r="G3">
-        <v>699</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>5.5</v>
-      </c>
-      <c r="F4">
-        <v>254</v>
-      </c>
-      <c r="G4">
-        <v>638</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>273</v>
-      </c>
-      <c r="G5">
-        <v>699</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>273</v>
-      </c>
-      <c r="G6">
-        <v>699</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/php/files/export_temps.xlsx
+++ b/php/files/export_temps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -68,37 +68,415 @@
     <t>personne</t>
   </si>
   <si>
-    <t>b8e17a25-2d09-aa9a-abb1-3db4bbede78d</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>2023-01-02 06:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-02 09:00:00</t>
-  </si>
-  <si>
-    <t>ANIM_N2000 -  Animation Natura 2000</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
+    <t>ADMINISTRATIF</t>
+  </si>
+  <si>
+    <t>2022-01-13 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-13 08:00:00</t>
+  </si>
+  <si>
+    <t>Télétravail</t>
+  </si>
+  <si>
+    <t>Organisation de la journée de renfort technicien à la Rastière avec Samuel VIGOT</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>#3a5a6a</t>
+  </si>
+  <si>
+    <t>Antonin Lepeltier</t>
+  </si>
+  <si>
+    <t>UCG St-Clément 2022</t>
+  </si>
+  <si>
+    <t>2022-01-17 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-17 12:00:00</t>
+  </si>
+  <si>
+    <t>COORD_PROJET</t>
   </si>
   <si>
     <t>Bureau</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>#ff0000</t>
-  </si>
-  <si>
-    <t>Benoit Perceval</t>
+    <t>(import_wa)  UCG St-Clément 2022Intégration notes CA PG</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>William Arial</t>
+  </si>
+  <si>
+    <t>2022-01-25 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-25 12:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022prépa carto fossés rastière</t>
+  </si>
+  <si>
+    <t>TRAVAUX REGIE</t>
+  </si>
+  <si>
+    <t>2022-01-26 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-26 08:00:00</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>(import_sv)  Préparation matériel technique pour chantier du 27.01</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>Samuel VIGOT</t>
+  </si>
+  <si>
+    <t>2022-01-27 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-27 17:00:00</t>
+  </si>
+  <si>
+    <t>(import_sv)  Fauche exclos Prêle des Bois - La Rastière</t>
+  </si>
+  <si>
+    <t>2022-01-27 11:00:00</t>
+  </si>
+  <si>
+    <t>Débroussaillage exclos prêle des bois et coupe d'une branche de chêne tombée sur clôture</t>
+  </si>
+  <si>
+    <t>2022-01-27 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-27 12:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022calage chantier prêle + Antonin</t>
+  </si>
+  <si>
+    <t>2022-01-27 16:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 12:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022rédac projet parcelle repli rastière</t>
+  </si>
+  <si>
+    <t>2022-02-04 08:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-04 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-02-04 12:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-04 15:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-09 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-09 12:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022carto fossés Rastière</t>
+  </si>
+  <si>
+    <t>2022-02-27 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-27 16:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 14:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022saisie carto fossés Rastière</t>
+  </si>
+  <si>
+    <t>2022-04-15 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-04-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-04-16 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-04-16 09:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022carto SIG fossés rastière</t>
+  </si>
+  <si>
+    <t>2022-04-18 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-04-18 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-04 06:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:00:00</t>
+  </si>
+  <si>
+    <t>Débroussaillage exclos parcelle en convention et réparation de clôtures le long de la rivière Rastière</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-05-04 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-10 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-10 10:00:00</t>
+  </si>
+  <si>
+    <t>Suivi de site Champ chevrel, point travaux et soutien scientifique pour suivi péliade</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-05-12 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-12 11:00:00</t>
+  </si>
+  <si>
+    <t>Réparation clôture le long de la rivière</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:30:00</t>
+  </si>
+  <si>
+    <t>Suivi fougère Champ Chevrel</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-06-09 06:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-09 10:00:00</t>
+  </si>
+  <si>
+    <t>Fauche fougère Champ chevrel</t>
+  </si>
+  <si>
+    <t>2022-06-09 06:30:00</t>
+  </si>
+  <si>
+    <t>2022-06-09 10:30:00</t>
+  </si>
+  <si>
+    <t>Fauche fougères champ chevrel</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>Fréderic Labaune</t>
+  </si>
+  <si>
+    <t>2022-06-28 06:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-28 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fauche de fougères Champ chevrel</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-06-28 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-28 15:00:00</t>
+  </si>
+  <si>
+    <t>Fauche de fougères Champ chevrel</t>
+  </si>
+  <si>
+    <t>2022-06-30 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-30 15:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022rédac projets repli Rastière</t>
+  </si>
+  <si>
+    <t>2022-07-09 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-09 15:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022Suivi Prêle des bois</t>
+  </si>
+  <si>
+    <t>2022-07-20 06:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-20 10:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fauche fougère Champ chevrel</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>2022-07-20 06:30:00</t>
+  </si>
+  <si>
+    <t>2022-07-20 16:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-20 11:30:00</t>
+  </si>
+  <si>
+    <t>2022-07-20 15:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-03 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-03 15:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022prépa suivis scientifiques</t>
+  </si>
+  <si>
+    <t>2022-08-04 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-04 11:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022Suivi Prêle des bois Rastière</t>
+  </si>
+  <si>
+    <t>2022-08-09 06:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-09 10:00:00</t>
+  </si>
+  <si>
+    <t>Débroussaillage le long de la Cance et suivi exclos</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2022-08-09 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-09 15:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Débroussaillage le long de la Cance et suivi exclos</t>
+  </si>
+  <si>
+    <t>2022-08-11 05:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-11 10:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-11 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-09-11 15:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022repérage haies pour entretien avec agri</t>
+  </si>
+  <si>
+    <t>2022-09-12 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-09-12 13:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022calage entretien haies avec agri Rastière</t>
+  </si>
+  <si>
+    <t>2022-09-18 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-09-18 15:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(import_wa)  UCG St-Clément 2022calage travaux entretien haies technicien </t>
+  </si>
+  <si>
+    <t>2022-09-25 07:00:00</t>
+  </si>
+  <si>
+    <t>2022-09-25 11:00:00</t>
+  </si>
+  <si>
+    <t>(import_wa)  UCG St-Clément 2022haies st-clément</t>
+  </si>
+  <si>
+    <t>2022-11-07 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-07 11:30:00</t>
+  </si>
+  <si>
+    <t>Rastière AL</t>
   </si>
 </sst>
 </file>
@@ -434,7 +812,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,54 +874,2093 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>51672</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>386</v>
+      </c>
+      <c r="G2">
+        <v>47672</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>382</v>
-      </c>
-      <c r="G2">
-        <v>2217</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>57245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>386</v>
+      </c>
+      <c r="G3">
+        <v>2680</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>57228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>386</v>
+      </c>
+      <c r="G4">
+        <v>2680</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>55787</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>386</v>
+      </c>
+      <c r="G5">
+        <v>52204</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>55786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>386</v>
+      </c>
+      <c r="G6">
+        <v>52203</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>51633</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>386</v>
+      </c>
+      <c r="G7">
+        <v>47606</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>57229</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>386</v>
+      </c>
+      <c r="G8">
+        <v>2680</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>51634</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>386</v>
+      </c>
+      <c r="G9">
+        <v>47607</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>57230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>386</v>
+      </c>
+      <c r="G10">
+        <v>2680</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>51587</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>386</v>
+      </c>
+      <c r="G11">
+        <v>47561</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>51588</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <v>386</v>
+      </c>
+      <c r="G12">
+        <v>47563</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>57231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>386</v>
+      </c>
+      <c r="G13">
+        <v>2680</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>57232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>386</v>
+      </c>
+      <c r="G14">
+        <v>2680</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>57233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>386</v>
+      </c>
+      <c r="G15">
+        <v>2680</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>57234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>386</v>
+      </c>
+      <c r="G16">
+        <v>2680</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>57235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>386</v>
+      </c>
+      <c r="G17">
+        <v>2680</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>57236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>386</v>
+      </c>
+      <c r="G18">
+        <v>2680</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>49025</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>386</v>
+      </c>
+      <c r="G19">
+        <v>45088</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>49026</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>386</v>
+      </c>
+      <c r="G20">
+        <v>45090</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>48877</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>2.5</v>
+      </c>
+      <c r="F21">
+        <v>386</v>
+      </c>
+      <c r="G21">
+        <v>44918</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>48884</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>3.5</v>
+      </c>
+      <c r="F22">
+        <v>386</v>
+      </c>
+      <c r="G22">
+        <v>44942</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>48328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>386</v>
+      </c>
+      <c r="G23">
+        <v>44158</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>48311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>386</v>
+      </c>
+      <c r="G24">
+        <v>44140</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>49429</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>386</v>
+      </c>
+      <c r="G25">
+        <v>45422</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>47490</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>386</v>
+      </c>
+      <c r="G26">
+        <v>43290</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>47491</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>386</v>
+      </c>
+      <c r="G27">
+        <v>43300</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>57237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>386</v>
+      </c>
+      <c r="G28">
+        <v>2680</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>57238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>386</v>
+      </c>
+      <c r="G29">
+        <v>2680</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>47019</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>4.5</v>
+      </c>
+      <c r="F30">
+        <v>386</v>
+      </c>
+      <c r="G30">
+        <v>42919</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>49452</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31">
+        <v>9.5</v>
+      </c>
+      <c r="F31">
+        <v>386</v>
+      </c>
+      <c r="G31">
+        <v>45440</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>47020</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>386</v>
+      </c>
+      <c r="G32">
+        <v>42920</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>57239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>386</v>
+      </c>
+      <c r="G33">
+        <v>2680</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>57240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>386</v>
+      </c>
+      <c r="G34">
+        <v>2680</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>46435</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>386</v>
+      </c>
+      <c r="G35">
+        <v>42295</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>46436</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36">
+        <v>4.5</v>
+      </c>
+      <c r="F36">
+        <v>386</v>
+      </c>
+      <c r="G36">
+        <v>42298</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>46437</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37">
+        <v>4.5</v>
+      </c>
+      <c r="F37">
+        <v>386</v>
+      </c>
+      <c r="G37">
+        <v>42286</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+      <c r="O37" t="s">
+        <v>131</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>46438</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38">
+        <v>3.5</v>
+      </c>
+      <c r="F38">
+        <v>386</v>
+      </c>
+      <c r="G38">
+        <v>42296</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>57241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>386</v>
+      </c>
+      <c r="G39">
+        <v>2680</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>141</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>57242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>386</v>
+      </c>
+      <c r="G40">
+        <v>2680</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" t="s">
+        <v>144</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>57243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>386</v>
+      </c>
+      <c r="G41">
+        <v>2680</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>57244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>386</v>
+      </c>
+      <c r="G42">
+        <v>2680</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>49513</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>386</v>
+      </c>
+      <c r="G43">
+        <v>45507</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O43" t="s">
+        <v>99</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/php/files/export_temps.xlsx
+++ b/php/files/export_temps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -68,34 +68,46 @@
     <t>personne</t>
   </si>
   <si>
-    <t>0311948c-1d97-424c-9e65-25d1ef642df2</t>
-  </si>
-  <si>
-    <t>ftg</t>
-  </si>
-  <si>
-    <t>2023-01-05 07:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-05 09:30:00</t>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>'2022-04-25 08:30:00</t>
+  </si>
+  <si>
+    <t>'2022-04-25 12:00:00</t>
+  </si>
+  <si>
+    <t>ANIM_TRANSVERSALE</t>
+  </si>
+  <si>
+    <t>PRAM 2022</t>
   </si>
   <si>
     <t>Bureau</t>
   </si>
   <si>
-    <t>blabla</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>#3a5a6a</t>
+    <t>'2022-04-29</t>
+  </si>
+  <si>
+    <t>#139410</t>
   </si>
   <si>
     <t>Benoit Perceval</t>
+  </si>
+  <si>
+    <t>ZH PRAM</t>
+  </si>
+  <si>
+    <t>'2022-09-19 12:00:00</t>
+  </si>
+  <si>
+    <t>'2022-09-19 16:30:00</t>
+  </si>
+  <si>
+    <t>'2022-09-19</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,35 +505,37 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>31785</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>3.5</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2">
+        <v>1667</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>455</v>
-      </c>
-      <c r="G2">
-        <v>51615</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
         <v>22</v>
       </c>
+      <c r="K2"/>
       <c r="L2" t="s">
         <v>23</v>
       </c>
@@ -538,6 +552,57 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>40228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>273</v>
+      </c>
+      <c r="G3">
+        <v>1667</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
     </row>
